--- a/cfg/Yolov3_new.xlsx
+++ b/cfg/Yolov3_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="90" windowWidth="13380" windowHeight="2685"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="104">
   <si>
     <t>[net]</t>
   </si>
@@ -168,9 +168,6 @@
     <t>[route]</t>
   </si>
   <si>
-    <t>layers = -4</t>
-  </si>
-  <si>
     <t>[upsample]</t>
   </si>
   <si>
@@ -183,20 +180,497 @@
     <t>filters=features=3*(5+10+26+4)</t>
   </si>
   <si>
-    <t>layers = -1, 60</t>
-  </si>
-  <si>
     <t>pad=0</t>
   </si>
   <si>
-    <t>layers = -1, 35</t>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>layers = -1, 60 (61)</t>
+  </si>
+  <si>
+    <t>layers = -1, 35 (36)</t>
+  </si>
+  <si>
+    <t>layers = -3 (-4)</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>InputImage</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>weights+bias</t>
+  </si>
+  <si>
+    <t>Model Parameters</t>
+  </si>
+  <si>
+    <t>weights + biases +gradients +momentum variables</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>https://datascience.stackexchange.com/questions/12649/how-to-calculate-the-mini-batch-memory-impact-when-training-deep-learning-models</t>
+  </si>
+  <si>
+    <r>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The memory required to use a network for predictions is far less than that required for training for two reasons:</t>
+    </r>
+  </si>
+  <si>
+    <t>When predicting, we only send an image forward through the network and not backward (so we don't multiply memory X 3; see below)</t>
+  </si>
+  <si>
+    <t>There's one prediction per image (so we don't need to multiply the memory required for one image by a batch size because we don't use batches in prediction).</t>
+  </si>
+  <si>
+    <t>Process (Memory to Train)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Calculate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the memory required to train on one image</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Multiply this number by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the number of images in your batch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>REMEMBER:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mini-batching says we take a subset of our data, compute the gradients and errors for each image in the subset, then average these and step forward in the direction of the average. For convnets, weights and biases are shared, but the number of activations is mutliplied by the number of images in the batch.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>STEP 1: Memory for 1 Image</t>
+  </si>
+  <si>
+    <t>To train one image, you must reserve memory for:</t>
+  </si>
+  <si>
+    <t>Model Parameters:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>weights</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>biases</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at each layer, their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gradients</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, and their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>momentum variables</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (if Adam, Adagrad, RMSProp, etc., optimizers are used)</t>
+    </r>
+  </si>
+  <si>
+    <t>To approximate the memory for this, calculate the memory required to store the weights and biases and multiply that by 3 (i.e. "by 3" because we're saying the amount of memory needed to store the weights and biases is (roughly) equal to that needed for the gradients and for the momentum variables)</t>
+  </si>
+  <si>
+    <t>EQUATIONS:</t>
+  </si>
+  <si>
+    <t>Convolutions:</t>
+  </si>
+  <si>
+    <t>weights(n) = depth(n) * (kernel_width * kernel_height) * depth(n-1)</t>
+  </si>
+  <si>
+    <t>biases(n) = depth(n)</t>
+  </si>
+  <si>
+    <t>Fully Connected (Dense) Layers:</t>
+  </si>
+  <si>
+    <t>weights(n) = outputs(n) * inputs(n)</t>
+  </si>
+  <si>
+    <t>biases(n) = outputs(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the current layer and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the previous layer, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>outputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are the number of outputs from the FC layer and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are the number of inputs to the FC layer (if the previous layer is not a fully-connected layer, the number of inputs is equal to the size of that layer flattened).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The memory for the weights and biases alone, plus the memory for the activations for one image (see below), is the total amount of memory you need for predictions (excluding some overhead for memory for convolutions and some other things).</t>
+    </r>
+  </si>
+  <si>
+    <t>Activations (these are "Blobs" in Caffe):</t>
+  </si>
+  <si>
+    <t>(I'm using terms loosely here, bear with me)</t>
+  </si>
+  <si>
+    <r>
+      <t>Each convolution in a convolution layer produces "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>number of pixels in image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" activations (i.e. you pass an image through a single convolution, you get a single feature map consisting of "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" activations, where "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" is the number of pixels from your image/input).</t>
+    </r>
+  </si>
+  <si>
+    <t>For fully-connected layers, the number of activations you produce is equal to the size of your output.</t>
+  </si>
+  <si>
+    <t>activations(n) = image_width * image_height * image_num_channels</t>
+  </si>
+  <si>
+    <t>activations(n) = outputs(n)</t>
+  </si>
+  <si>
+    <t>Note that your input is really only an image at the beginning of the network. After convolutions, it turns into something else (feature maps). So really replace "image_width", "image_height", and "image_num_channels" with "input_width", "input_height", and "layer_depth" to be more precise. (It's just easier for me to think of this concept in terms of images.)</t>
+  </si>
+  <si>
+    <t>Since we also need to store the error for the activations at each layer (used in the backward pass), we multiply the number of activations by 2 to get the total number of entities we need to make room for in our storage space. The number of activations increases with the number of images in the batch, so you multiply this number by the batch size.</t>
+  </si>
+  <si>
+    <t>STEP 2: Memory to Train Batch</t>
+  </si>
+  <si>
+    <t>Sum the number of weights and biases (times 3) and the number of activations (times 2 times the batch size). Multiply this by 4, and you get the number of bytes required to train the batch. You can divide by 1024^2 to get the answer in GB.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total each (2x)/(3x)</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Float Bit (16/32)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +684,55 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,10 +744,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,17 +762,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -308,9 +840,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +880,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -382,7 +914,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -417,10 +948,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,237 +1123,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:BE134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:BF210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z142" sqref="Z142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="58" max="58" width="20.42578125" customWidth="1"/>
-    <col min="59" max="59" width="15.28515625" customWidth="1"/>
-    <col min="60" max="60" width="17.85546875" customWidth="1"/>
-    <col min="61" max="61" width="15.7109375" customWidth="1"/>
-    <col min="62" max="62" width="8.140625" customWidth="1"/>
-    <col min="63" max="63" width="10.140625" customWidth="1"/>
-    <col min="64" max="64" width="14.5703125" customWidth="1"/>
-    <col min="65" max="65" width="15.7109375" customWidth="1"/>
-    <col min="66" max="66" width="15" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" customWidth="1"/>
+    <col min="59" max="59" width="20.42578125" customWidth="1"/>
+    <col min="60" max="60" width="15.28515625" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" customWidth="1"/>
+    <col min="62" max="62" width="15.7109375" customWidth="1"/>
+    <col min="63" max="63" width="8.140625" customWidth="1"/>
+    <col min="64" max="64" width="10.140625" customWidth="1"/>
+    <col min="65" max="65" width="14.5703125" customWidth="1"/>
+    <col min="66" max="66" width="15.7109375" customWidth="1"/>
+    <col min="67" max="67" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="BE1" s="1"/>
-    </row>
-    <row r="2" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:58">
+      <c r="BF1" s="1"/>
+    </row>
+    <row r="2" spans="3:58">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:58">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:58">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:58">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:58">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:58">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:58">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:58">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:58">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:58">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:58">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:58">
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:58">
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:58">
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:58">
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28">
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28">
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28">
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28">
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28">
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28">
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28">
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28">
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
+    <row r="26" spans="2:28">
+      <c r="AB26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="AA27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="U29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="T30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30">
+        <v>512</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f>IF(X30=2,0.5,X30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <f>U30*U30*V30</f>
+        <v>786432</v>
+      </c>
+      <c r="AB30">
+        <f>V30*V30*W30*X30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
         <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
@@ -837,50 +1365,152 @@
       <c r="J31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>512</v>
+      </c>
+      <c r="V31">
+        <v>32</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ref="Y31:Y94" si="0">IF(X31=2,0.5,X31)</f>
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <f>U31*U31*V31</f>
+        <v>8388608</v>
+      </c>
+      <c r="AB31">
+        <f>V31*W31*W31*X31*V30*Y31</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32">
+        <v>2</v>
+      </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32">
+        <v>256</v>
+      </c>
+      <c r="V32">
+        <v>64</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ref="AA32:AA95" si="1">U32*U32*V32</f>
+        <v>4194304</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" ref="AB32:AB95" si="2">V32*W32*W32*X32*V31*Y32</f>
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U33">
+        <v>256</v>
+      </c>
+      <c r="V33">
         <v>32</v>
       </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34">
+        <v>4</v>
+      </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -892,61 +1522,151 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>256</v>
+      </c>
+      <c r="V34">
+        <v>64</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="2"/>
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
+      <c r="B35">
+        <v>5</v>
+      </c>
       <c r="C35" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35">
+        <v>256</v>
+      </c>
+      <c r="V35">
+        <v>64</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
         <v>35</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>25</v>
       </c>
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
         <v>27</v>
       </c>
-      <c r="J35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="U36">
+        <v>128</v>
+      </c>
+      <c r="V36">
+        <v>128</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="2"/>
+        <v>73728</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
+      <c r="B37">
+        <v>7</v>
+      </c>
       <c r="C37" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -964,15 +1684,45 @@
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>128</v>
+      </c>
+      <c r="V37">
+        <v>64</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38">
+        <v>8</v>
+      </c>
       <c r="C38" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -995,10 +1745,40 @@
       <c r="J38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>128</v>
+      </c>
+      <c r="V38">
+        <v>128</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="2"/>
+        <v>73728</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="B39">
+        <v>9</v>
+      </c>
       <c r="C39" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -1009,10 +1789,40 @@
       <c r="F39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>128</v>
+      </c>
+      <c r="V39">
+        <v>128</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="B40">
+        <v>10</v>
+      </c>
       <c r="C40" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -1021,24 +1831,54 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>128</v>
+      </c>
+      <c r="V40">
+        <v>64</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="B41">
+        <v>11</v>
+      </c>
       <c r="C41" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1050,61 +1890,151 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
         <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>128</v>
+      </c>
+      <c r="V41">
+        <v>128</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="2"/>
+        <v>73728</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="B42">
+        <v>12</v>
+      </c>
       <c r="C42" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42">
+        <v>128</v>
+      </c>
+      <c r="V42">
+        <v>128</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
         <v>36</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>25</v>
       </c>
-      <c r="H42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
         <v>27</v>
       </c>
-      <c r="J42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="U43">
+        <v>64</v>
+      </c>
+      <c r="V43">
+        <v>256</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="B44">
+        <v>14</v>
+      </c>
       <c r="C44" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1122,15 +2052,45 @@
         <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>64</v>
+      </c>
+      <c r="V44">
+        <v>128</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="B45">
+        <v>15</v>
+      </c>
       <c r="C45" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1153,10 +2113,40 @@
       <c r="J45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>64</v>
+      </c>
+      <c r="V45">
+        <v>256</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="B46">
+        <v>16</v>
+      </c>
       <c r="C46" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
@@ -1167,10 +2157,40 @@
       <c r="F46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>64</v>
+      </c>
+      <c r="V46">
+        <v>256</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47">
+        <v>17</v>
+      </c>
       <c r="C47" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -1188,15 +2208,45 @@
         <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>64</v>
+      </c>
+      <c r="V47">
+        <v>128</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="B48">
+        <v>18</v>
+      </c>
       <c r="C48" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -1219,10 +2269,40 @@
       <c r="J48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <v>64</v>
+      </c>
+      <c r="V48">
+        <v>256</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28">
+      <c r="B49">
+        <v>19</v>
+      </c>
       <c r="C49" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
@@ -1233,10 +2313,40 @@
       <c r="F49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <v>64</v>
+      </c>
+      <c r="V49">
+        <v>256</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28">
+      <c r="B50">
+        <v>20</v>
+      </c>
       <c r="C50" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -1254,15 +2364,45 @@
         <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>64</v>
+      </c>
+      <c r="V50">
+        <v>128</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28">
+      <c r="B51">
+        <v>21</v>
+      </c>
       <c r="C51" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -1285,10 +2425,40 @@
       <c r="J51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>64</v>
+      </c>
+      <c r="V51">
+        <v>256</v>
+      </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28">
+      <c r="B52">
+        <v>22</v>
+      </c>
       <c r="C52" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
         <v>32</v>
@@ -1299,10 +2469,40 @@
       <c r="F52" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>64</v>
+      </c>
+      <c r="V52">
+        <v>256</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28">
+      <c r="B53">
+        <v>23</v>
+      </c>
       <c r="C53" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -1320,15 +2520,45 @@
         <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>64</v>
+      </c>
+      <c r="V53">
+        <v>128</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28">
+      <c r="B54">
+        <v>24</v>
+      </c>
       <c r="C54" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -1351,10 +2581,40 @@
       <c r="J54" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>64</v>
+      </c>
+      <c r="V54">
+        <v>256</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28">
+      <c r="B55">
+        <v>25</v>
+      </c>
       <c r="C55" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>32</v>
@@ -1365,10 +2625,40 @@
       <c r="F55" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>64</v>
+      </c>
+      <c r="V55">
+        <v>256</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28">
+      <c r="B56">
+        <v>26</v>
+      </c>
       <c r="C56" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -1386,15 +2676,45 @@
         <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>64</v>
+      </c>
+      <c r="V56">
+        <v>128</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28">
+      <c r="B57">
+        <v>27</v>
+      </c>
       <c r="C57" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1417,10 +2737,40 @@
       <c r="J57" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>64</v>
+      </c>
+      <c r="V57">
+        <v>256</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58">
+        <v>28</v>
+      </c>
       <c r="C58" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
@@ -1431,10 +2781,40 @@
       <c r="F58" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>64</v>
+      </c>
+      <c r="V58">
+        <v>256</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
+      <c r="B59">
+        <v>29</v>
+      </c>
       <c r="C59" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -1452,15 +2832,45 @@
         <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>64</v>
+      </c>
+      <c r="V59">
+        <v>128</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
+      <c r="B60">
+        <v>30</v>
+      </c>
       <c r="C60" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -1483,10 +2893,40 @@
       <c r="J60" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>64</v>
+      </c>
+      <c r="V60">
+        <v>256</v>
+      </c>
+      <c r="W60">
+        <v>3</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
+      <c r="B61">
+        <v>31</v>
+      </c>
       <c r="C61" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
@@ -1497,10 +2937,40 @@
       <c r="F61" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>64</v>
+      </c>
+      <c r="V61">
+        <v>256</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
+      <c r="B62">
+        <v>32</v>
+      </c>
       <c r="C62" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -1518,15 +2988,45 @@
         <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>64</v>
+      </c>
+      <c r="V62">
+        <v>128</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
+      <c r="B63">
+        <v>33</v>
+      </c>
       <c r="C63" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -1549,10 +3049,40 @@
       <c r="J63" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>64</v>
+      </c>
+      <c r="V63">
+        <v>256</v>
+      </c>
+      <c r="W63">
+        <v>3</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28">
+      <c r="B64">
+        <v>34</v>
+      </c>
       <c r="C64" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -1563,10 +3093,40 @@
       <c r="F64" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <v>64</v>
+      </c>
+      <c r="V64">
+        <v>256</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28">
+      <c r="B65">
+        <v>35</v>
+      </c>
       <c r="C65" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -1575,24 +3135,54 @@
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>64</v>
+      </c>
+      <c r="V65">
+        <v>128</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28">
+      <c r="B66">
+        <v>36</v>
+      </c>
       <c r="C66" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -1604,61 +3194,151 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
         <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J66" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>64</v>
+      </c>
+      <c r="V66">
+        <v>256</v>
+      </c>
+      <c r="W66">
+        <v>3</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="2"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28">
+      <c r="B67">
+        <v>37</v>
+      </c>
       <c r="C67" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67">
+        <v>64</v>
+      </c>
+      <c r="V67">
+        <v>256</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28">
+      <c r="B68">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
         <v>37</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>25</v>
       </c>
-      <c r="H67" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s">
         <v>27</v>
       </c>
-      <c r="J67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="1">
-        <v>41</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="J68" t="s">
+        <v>28</v>
+      </c>
+      <c r="U68">
         <v>32</v>
       </c>
-      <c r="E68" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>512</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>2</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
+      <c r="B69">
+        <v>39</v>
+      </c>
       <c r="C69" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -1676,15 +3356,45 @@
         <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <v>32</v>
+      </c>
+      <c r="V69">
+        <v>256</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28">
+      <c r="B70">
+        <v>40</v>
+      </c>
       <c r="C70" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -1707,10 +3417,40 @@
       <c r="J70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>32</v>
+      </c>
+      <c r="V70">
+        <v>512</v>
+      </c>
+      <c r="W70">
+        <v>3</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28">
+      <c r="B71">
+        <v>41</v>
+      </c>
       <c r="C71" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
         <v>32</v>
@@ -1721,10 +3461,40 @@
       <c r="F71" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>32</v>
+      </c>
+      <c r="V71">
+        <v>512</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28">
+      <c r="B72">
+        <v>42</v>
+      </c>
       <c r="C72" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -1742,15 +3512,45 @@
         <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J72" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>32</v>
+      </c>
+      <c r="V72">
+        <v>256</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28">
+      <c r="B73">
+        <v>43</v>
+      </c>
       <c r="C73" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -1773,10 +3573,40 @@
       <c r="J73" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>32</v>
+      </c>
+      <c r="V73">
+        <v>512</v>
+      </c>
+      <c r="W73">
+        <v>3</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28">
+      <c r="B74">
+        <v>44</v>
+      </c>
       <c r="C74" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
         <v>32</v>
@@ -1787,10 +3617,40 @@
       <c r="F74" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <v>32</v>
+      </c>
+      <c r="V74">
+        <v>512</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28">
+      <c r="B75">
+        <v>45</v>
+      </c>
       <c r="C75" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
         <v>22</v>
@@ -1808,15 +3668,45 @@
         <v>26</v>
       </c>
       <c r="I75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <v>32</v>
+      </c>
+      <c r="V75">
+        <v>256</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28">
+      <c r="B76">
+        <v>46</v>
+      </c>
       <c r="C76" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
@@ -1839,10 +3729,40 @@
       <c r="J76" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <v>32</v>
+      </c>
+      <c r="V76">
+        <v>512</v>
+      </c>
+      <c r="W76">
+        <v>3</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28">
+      <c r="B77">
+        <v>47</v>
+      </c>
       <c r="C77" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
         <v>32</v>
@@ -1853,10 +3773,40 @@
       <c r="F77" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <v>32</v>
+      </c>
+      <c r="V77">
+        <v>512</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28">
+      <c r="B78">
+        <v>48</v>
+      </c>
       <c r="C78" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -1874,15 +3824,45 @@
         <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>32</v>
+      </c>
+      <c r="V78">
+        <v>256</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28">
+      <c r="B79">
+        <v>49</v>
+      </c>
       <c r="C79" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -1905,10 +3885,40 @@
       <c r="J79" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <v>32</v>
+      </c>
+      <c r="V79">
+        <v>512</v>
+      </c>
+      <c r="W79">
+        <v>3</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28">
+      <c r="B80">
+        <v>50</v>
+      </c>
       <c r="C80" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
         <v>32</v>
@@ -1919,10 +3929,40 @@
       <c r="F80" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <v>32</v>
+      </c>
+      <c r="V80">
+        <v>512</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28">
+      <c r="B81">
+        <v>51</v>
+      </c>
       <c r="C81" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
@@ -1940,15 +3980,45 @@
         <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <v>32</v>
+      </c>
+      <c r="V81">
+        <v>256</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28">
+      <c r="B82">
+        <v>52</v>
+      </c>
       <c r="C82" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -1971,10 +4041,40 @@
       <c r="J82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <v>32</v>
+      </c>
+      <c r="V82">
+        <v>512</v>
+      </c>
+      <c r="W82">
+        <v>3</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28">
+      <c r="B83">
+        <v>53</v>
+      </c>
       <c r="C83" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
         <v>32</v>
@@ -1985,10 +4085,40 @@
       <c r="F83" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <v>32</v>
+      </c>
+      <c r="V83">
+        <v>512</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28">
+      <c r="B84">
+        <v>54</v>
+      </c>
       <c r="C84" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
         <v>22</v>
@@ -2006,15 +4136,45 @@
         <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J84" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U84">
+        <v>32</v>
+      </c>
+      <c r="V84">
+        <v>256</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28">
+      <c r="B85">
+        <v>55</v>
+      </c>
       <c r="C85" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
@@ -2037,10 +4197,40 @@
       <c r="J85" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U85">
+        <v>32</v>
+      </c>
+      <c r="V85">
+        <v>512</v>
+      </c>
+      <c r="W85">
+        <v>3</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28">
+      <c r="B86">
+        <v>56</v>
+      </c>
       <c r="C86" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D86" t="s">
         <v>32</v>
@@ -2051,10 +4241,40 @@
       <c r="F86" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U86">
+        <v>32</v>
+      </c>
+      <c r="V86">
+        <v>512</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28">
+      <c r="B87">
+        <v>57</v>
+      </c>
       <c r="C87" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -2072,15 +4292,45 @@
         <v>26</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U87">
+        <v>32</v>
+      </c>
+      <c r="V87">
+        <v>256</v>
+      </c>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28">
+      <c r="B88">
+        <v>58</v>
+      </c>
       <c r="C88" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -2103,10 +4353,40 @@
       <c r="J88" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U88">
+        <v>32</v>
+      </c>
+      <c r="V88">
+        <v>512</v>
+      </c>
+      <c r="W88">
+        <v>3</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="89" spans="2:28">
+      <c r="B89">
+        <v>59</v>
+      </c>
       <c r="C89" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
         <v>32</v>
@@ -2117,10 +4397,40 @@
       <c r="F89" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <v>32</v>
+      </c>
+      <c r="V89">
+        <v>512</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28">
+      <c r="B90">
+        <v>60</v>
+      </c>
       <c r="C90" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -2129,24 +4439,54 @@
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J90" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U90">
+        <v>32</v>
+      </c>
+      <c r="V90">
+        <v>256</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28">
+      <c r="B91">
+        <v>61</v>
+      </c>
       <c r="C91" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -2158,61 +4498,151 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
         <v>26</v>
       </c>
       <c r="I91" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J91" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <v>32</v>
+      </c>
+      <c r="V91">
+        <v>512</v>
+      </c>
+      <c r="W91">
+        <v>3</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="2"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28">
+      <c r="B92">
+        <v>62</v>
+      </c>
       <c r="C92" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="U92">
+        <v>32</v>
+      </c>
+      <c r="V92">
+        <v>512</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28">
+      <c r="B93">
+        <v>63</v>
+      </c>
+      <c r="C93" s="1">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" t="s">
         <v>38</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>25</v>
       </c>
-      <c r="H92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="H93" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" t="s">
         <v>27</v>
       </c>
-      <c r="J92" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="1">
-        <v>66</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" t="s">
-        <v>33</v>
-      </c>
-      <c r="F93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>28</v>
+      </c>
+      <c r="U93">
+        <v>16</v>
+      </c>
+      <c r="V93">
+        <v>1024</v>
+      </c>
+      <c r="W93">
+        <v>3</v>
+      </c>
+      <c r="X93">
+        <v>2</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="2"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28">
+      <c r="B94">
+        <v>64</v>
+      </c>
       <c r="C94" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -2230,15 +4660,45 @@
         <v>26</v>
       </c>
       <c r="I94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J94" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <v>16</v>
+      </c>
+      <c r="V94">
+        <v>512</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="2"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="95" spans="2:28">
+      <c r="B95">
+        <v>65</v>
+      </c>
       <c r="C95" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -2261,10 +4721,40 @@
       <c r="J95" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <v>16</v>
+      </c>
+      <c r="V95">
+        <v>1024</v>
+      </c>
+      <c r="W95">
+        <v>3</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" ref="Y95:Y137" si="3">IF(X95=2,0.5,X95)</f>
+        <v>1</v>
+      </c>
+      <c r="Z95">
+        <v>1</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="2"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28">
+      <c r="B96">
+        <v>66</v>
+      </c>
       <c r="C96" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
@@ -2275,10 +4765,40 @@
       <c r="F96" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U96">
+        <v>16</v>
+      </c>
+      <c r="V96">
+        <v>1024</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" ref="AA96:AA137" si="4">U96*U96*V96</f>
+        <v>262144</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" ref="AB96:AB137" si="5">V96*W96*W96*X96*V95*Y96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:28">
+      <c r="B97">
+        <v>67</v>
+      </c>
       <c r="C97" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -2296,15 +4816,45 @@
         <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J97" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U97">
+        <v>16</v>
+      </c>
+      <c r="V97">
+        <v>512</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>1</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28">
+      <c r="B98">
+        <v>68</v>
+      </c>
       <c r="C98" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
@@ -2327,10 +4877,40 @@
       <c r="J98" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U98">
+        <v>16</v>
+      </c>
+      <c r="V98">
+        <v>1024</v>
+      </c>
+      <c r="W98">
+        <v>3</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="99" spans="2:28">
+      <c r="B99">
+        <v>69</v>
+      </c>
       <c r="C99" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D99" t="s">
         <v>32</v>
@@ -2341,10 +4921,40 @@
       <c r="F99" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <v>16</v>
+      </c>
+      <c r="V99">
+        <v>1024</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28">
+      <c r="B100">
+        <v>70</v>
+      </c>
       <c r="C100" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
@@ -2362,15 +4972,45 @@
         <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J100" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <v>16</v>
+      </c>
+      <c r="V100">
+        <v>512</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>1</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28">
+      <c r="B101">
+        <v>71</v>
+      </c>
       <c r="C101" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D101" t="s">
         <v>22</v>
@@ -2393,10 +5033,40 @@
       <c r="J101" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U101">
+        <v>16</v>
+      </c>
+      <c r="V101">
+        <v>1024</v>
+      </c>
+      <c r="W101">
+        <v>3</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28">
+      <c r="B102">
+        <v>72</v>
+      </c>
       <c r="C102" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D102" t="s">
         <v>32</v>
@@ -2407,10 +5077,40 @@
       <c r="F102" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U102">
+        <v>16</v>
+      </c>
+      <c r="V102">
+        <v>1024</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>1</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28">
+      <c r="B103">
+        <v>73</v>
+      </c>
       <c r="C103" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
@@ -2428,15 +5128,45 @@
         <v>26</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J103" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U103">
+        <v>16</v>
+      </c>
+      <c r="V103">
+        <v>512</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103">
+        <v>1</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28">
+      <c r="B104">
+        <v>74</v>
+      </c>
       <c r="C104" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D104" t="s">
         <v>22</v>
@@ -2459,62 +5189,140 @@
       <c r="J104" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U104">
+        <v>16</v>
+      </c>
+      <c r="V104">
+        <v>1024</v>
+      </c>
+      <c r="W104">
+        <v>3</v>
+      </c>
+      <c r="X104">
+        <v>1</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28">
+      <c r="B105">
+        <v>75</v>
+      </c>
       <c r="C105" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="U105">
+        <v>16</v>
+      </c>
+      <c r="V105">
+        <v>1024</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>1</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28">
+      <c r="B106">
+        <v>76</v>
+      </c>
+      <c r="C106" s="1">
+        <v>76</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
         <v>37</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>31</v>
-      </c>
-      <c r="H105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105" t="s">
-        <v>56</v>
-      </c>
-      <c r="J105" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="1">
-        <v>79</v>
-      </c>
-      <c r="D106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
       </c>
       <c r="H106" t="s">
         <v>26</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J106" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U106">
+        <v>16</v>
+      </c>
+      <c r="V106">
+        <v>512</v>
+      </c>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="107" spans="2:28">
+      <c r="B107">
+        <v>77</v>
+      </c>
       <c r="C107" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
@@ -2523,24 +5331,54 @@
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
         <v>26</v>
       </c>
       <c r="I107" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U107">
+        <v>16</v>
+      </c>
+      <c r="V107">
+        <v>1024</v>
+      </c>
+      <c r="W107">
+        <v>3</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28">
+      <c r="B108">
+        <v>78</v>
+      </c>
       <c r="C108" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
         <v>22</v>
@@ -2549,102 +5387,228 @@
         <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H108" t="s">
         <v>26</v>
       </c>
       <c r="I108" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="U108">
+        <v>16</v>
+      </c>
+      <c r="V108">
+        <v>512</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <v>1</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>1</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28">
+      <c r="B109">
+        <v>79</v>
+      </c>
       <c r="C109" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
         <v>22</v>
       </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
         <v>26</v>
       </c>
       <c r="I109" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J109" t="s">
-        <v>34</v>
-      </c>
-      <c r="M109" t="s">
+        <v>28</v>
+      </c>
+      <c r="U109">
+        <v>16</v>
+      </c>
+      <c r="V109">
+        <v>1024</v>
+      </c>
+      <c r="W109">
+        <v>3</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <v>1</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="110" spans="2:28">
+      <c r="B110">
+        <v>80</v>
+      </c>
+      <c r="C110" s="1">
+        <v>80</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C110" s="1">
-        <v>83</v>
-      </c>
-      <c r="D110" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110" t="s">
-        <v>43</v>
-      </c>
-      <c r="H110" t="s">
-        <v>44</v>
-      </c>
-      <c r="I110" t="s">
-        <v>45</v>
-      </c>
       <c r="J110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110" t="s">
-        <v>47</v>
-      </c>
-      <c r="L110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="U110">
+        <v>16</v>
+      </c>
+      <c r="V110">
+        <v>512</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z110">
+        <v>1</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28">
+      <c r="B111">
+        <v>81</v>
+      </c>
       <c r="C111" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>28</v>
+      </c>
+      <c r="U111">
+        <v>16</v>
+      </c>
+      <c r="V111">
+        <v>1024</v>
+      </c>
+      <c r="W111">
+        <v>3</v>
+      </c>
+      <c r="X111">
+        <v>1</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="5"/>
+        <v>4718592</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28">
+      <c r="B112">
+        <v>82</v>
+      </c>
       <c r="C112" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
       </c>
-      <c r="E112" t="s">
-        <v>23</v>
-      </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -2653,37 +5617,151 @@
         <v>26</v>
       </c>
       <c r="I112" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="M112" t="s">
+        <v>53</v>
+      </c>
+      <c r="U112">
+        <v>16</v>
+      </c>
+      <c r="V112">
+        <v>255</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="4"/>
+        <v>65280</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="5"/>
+        <v>261120</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28">
       <c r="C113" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" t="s">
+        <v>44</v>
+      </c>
+      <c r="I113" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K113" t="s">
+        <v>47</v>
+      </c>
+      <c r="L113" t="s">
+        <v>48</v>
+      </c>
+      <c r="N113" t="s">
+        <v>42</v>
+      </c>
+      <c r="U113">
+        <v>16</v>
+      </c>
+      <c r="V113">
+        <v>255</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>1</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="4"/>
+        <v>65280</v>
+      </c>
+      <c r="AB113">
+        <f t="shared" si="5"/>
+        <v>65025</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28">
+      <c r="B114">
+        <v>83</v>
+      </c>
       <c r="C114" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s">
         <v>49</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="U114">
+        <v>16</v>
+      </c>
+      <c r="V114">
+        <v>512</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>1</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28">
+      <c r="B115">
+        <v>84</v>
+      </c>
       <c r="C115" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -2701,93 +5779,186 @@
         <v>26</v>
       </c>
       <c r="I115" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J115" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U115">
+        <v>16</v>
+      </c>
+      <c r="V115">
+        <v>256</v>
+      </c>
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="116" spans="2:28">
+      <c r="B116">
+        <v>85</v>
+      </c>
       <c r="C116" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G116" t="s">
         <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" t="s">
-        <v>27</v>
-      </c>
-      <c r="J116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="U116">
+        <v>16</v>
+      </c>
+      <c r="V116">
+        <v>256</v>
+      </c>
+      <c r="W116">
+        <v>3</v>
+      </c>
+      <c r="X116">
+        <v>2</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="5"/>
+        <v>589824</v>
+      </c>
+    </row>
+    <row r="117" spans="2:28">
+      <c r="B117">
+        <v>86</v>
+      </c>
       <c r="C117" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" t="s">
+        <v>58</v>
+      </c>
+      <c r="U117">
+        <v>32</v>
+      </c>
+      <c r="V117">
+        <v>512</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>1</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28">
+      <c r="B118">
+        <v>87</v>
+      </c>
+      <c r="C118" s="1">
+        <v>88</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" t="s">
         <v>36</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G118" t="s">
         <v>31</v>
-      </c>
-      <c r="H117" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" t="s">
-        <v>56</v>
-      </c>
-      <c r="J117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C118" s="1">
-        <v>91</v>
-      </c>
-      <c r="D118" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
       </c>
       <c r="H118" t="s">
         <v>26</v>
       </c>
       <c r="I118" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J118" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U118">
+        <v>32</v>
+      </c>
+      <c r="V118">
+        <v>256</v>
+      </c>
+      <c r="W118">
+        <v>1</v>
+      </c>
+      <c r="X118">
+        <v>1</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="119" spans="2:28">
+      <c r="B119">
+        <v>88</v>
+      </c>
       <c r="C119" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -2796,24 +5967,54 @@
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
         <v>26</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J119" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U119">
+        <v>32</v>
+      </c>
+      <c r="V119">
+        <v>512</v>
+      </c>
+      <c r="W119">
+        <v>3</v>
+      </c>
+      <c r="X119">
+        <v>1</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="5"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28">
+      <c r="B120">
+        <v>89</v>
+      </c>
       <c r="C120" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -2822,99 +6023,228 @@
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H120" t="s">
         <v>26</v>
       </c>
       <c r="I120" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J120" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U120">
+        <v>32</v>
+      </c>
+      <c r="V120">
+        <v>256</v>
+      </c>
+      <c r="W120">
+        <v>1</v>
+      </c>
+      <c r="X120">
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="121" spans="2:28">
+      <c r="B121">
+        <v>90</v>
+      </c>
       <c r="C121" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
       </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
         <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="U121">
+        <v>32</v>
+      </c>
+      <c r="V121">
+        <v>512</v>
+      </c>
+      <c r="W121">
+        <v>3</v>
+      </c>
+      <c r="X121">
+        <v>1</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="5"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="122" spans="2:28">
+      <c r="B122">
+        <v>91</v>
+      </c>
       <c r="C122" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H122" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I122" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
-      </c>
-      <c r="K122" t="s">
-        <v>47</v>
-      </c>
-      <c r="L122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="U122">
+        <v>32</v>
+      </c>
+      <c r="V122">
+        <v>256</v>
+      </c>
+      <c r="W122">
+        <v>1</v>
+      </c>
+      <c r="X122">
+        <v>1</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z122">
+        <v>1</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB122">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28">
+      <c r="B123">
+        <v>92</v>
+      </c>
       <c r="C123" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D123" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+      <c r="U123">
+        <v>32</v>
+      </c>
+      <c r="V123">
+        <v>512</v>
+      </c>
+      <c r="W123">
+        <v>3</v>
+      </c>
+      <c r="X123">
+        <v>1</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB123">
+        <f t="shared" si="5"/>
+        <v>1179648</v>
+      </c>
+    </row>
+    <row r="124" spans="2:28">
+      <c r="B124">
+        <v>93</v>
+      </c>
       <c r="C124" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
       </c>
-      <c r="E124" t="s">
-        <v>23</v>
-      </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -2923,37 +6253,148 @@
         <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J124" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="U124">
+        <v>32</v>
+      </c>
+      <c r="V124">
+        <v>255</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>1</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <v>1</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="4"/>
+        <v>261120</v>
+      </c>
+      <c r="AB124">
+        <f t="shared" si="5"/>
+        <v>130560</v>
+      </c>
+    </row>
+    <row r="125" spans="2:28">
       <c r="C125" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" t="s">
         <v>51</v>
       </c>
-      <c r="E125" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" t="s">
+        <v>44</v>
+      </c>
+      <c r="I125" t="s">
+        <v>45</v>
+      </c>
+      <c r="J125" t="s">
+        <v>46</v>
+      </c>
+      <c r="K125" t="s">
+        <v>47</v>
+      </c>
+      <c r="L125" t="s">
+        <v>48</v>
+      </c>
+      <c r="N125" t="s">
+        <v>42</v>
+      </c>
+      <c r="U125">
+        <v>32</v>
+      </c>
+      <c r="V125">
+        <v>255</v>
+      </c>
+      <c r="W125">
+        <v>1</v>
+      </c>
+      <c r="X125">
+        <v>1</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="4"/>
+        <v>261120</v>
+      </c>
+      <c r="AB125">
+        <f t="shared" si="5"/>
+        <v>65025</v>
+      </c>
+    </row>
+    <row r="126" spans="2:28">
+      <c r="B126">
+        <v>94</v>
+      </c>
       <c r="C126" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D126" t="s">
         <v>49</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="U126">
+        <v>32</v>
+      </c>
+      <c r="V126">
+        <v>256</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="AB126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28">
+      <c r="B127">
+        <v>95</v>
+      </c>
       <c r="C127" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -2971,93 +6412,186 @@
         <v>26</v>
       </c>
       <c r="I127" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J127" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U127">
+        <v>32</v>
+      </c>
+      <c r="V127">
+        <v>128</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <v>1</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="4"/>
+        <v>131072</v>
+      </c>
+      <c r="AB127">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28">
+      <c r="B128">
+        <v>96</v>
+      </c>
       <c r="C128" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>26</v>
-      </c>
-      <c r="I128" t="s">
-        <v>27</v>
-      </c>
-      <c r="J128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="U128">
+        <v>64</v>
+      </c>
+      <c r="V128">
+        <v>128</v>
+      </c>
+      <c r="W128">
+        <v>3</v>
+      </c>
+      <c r="X128">
+        <v>2</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z128">
+        <v>1</v>
+      </c>
+      <c r="AA128">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB128">
+        <f t="shared" si="5"/>
+        <v>147456</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30">
+      <c r="B129">
+        <v>97</v>
+      </c>
       <c r="C129" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" t="s">
+        <v>59</v>
+      </c>
+      <c r="U129">
+        <v>64</v>
+      </c>
+      <c r="V129">
+        <v>256</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
+        <f t="shared" si="4"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30">
+      <c r="B130">
+        <v>98</v>
+      </c>
+      <c r="C130" s="1">
+        <v>100</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" t="s">
         <v>35</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>31</v>
-      </c>
-      <c r="H129" t="s">
-        <v>26</v>
-      </c>
-      <c r="I129" t="s">
-        <v>56</v>
-      </c>
-      <c r="J129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C130" s="1">
-        <v>103</v>
-      </c>
-      <c r="D130" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" t="s">
-        <v>23</v>
-      </c>
-      <c r="F130" t="s">
-        <v>36</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
       </c>
       <c r="H130" t="s">
         <v>26</v>
       </c>
       <c r="I130" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J130" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U130">
+        <v>64</v>
+      </c>
+      <c r="V130">
+        <v>128</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130">
+        <v>1</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <v>1</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB130">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30">
+      <c r="B131">
+        <v>99</v>
+      </c>
       <c r="C131" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D131" t="s">
         <v>22</v>
@@ -3066,24 +6600,54 @@
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
       </c>
       <c r="I131" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J131" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U131">
+        <v>64</v>
+      </c>
+      <c r="V131">
+        <v>256</v>
+      </c>
+      <c r="W131">
+        <v>3</v>
+      </c>
+      <c r="X131">
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" si="4"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB131">
+        <f t="shared" si="5"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30">
+      <c r="B132">
+        <v>100</v>
+      </c>
       <c r="C132" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D132" t="s">
         <v>22</v>
@@ -3092,91 +6656,596 @@
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H132" t="s">
         <v>26</v>
       </c>
       <c r="I132" t="s">
+        <v>54</v>
+      </c>
+      <c r="J132" t="s">
+        <v>28</v>
+      </c>
+      <c r="U132">
+        <v>64</v>
+      </c>
+      <c r="V132">
+        <v>128</v>
+      </c>
+      <c r="W132">
+        <v>1</v>
+      </c>
+      <c r="X132">
+        <v>1</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <v>1</v>
+      </c>
+      <c r="AA132">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB132">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30">
+      <c r="B133">
+        <v>101</v>
+      </c>
+      <c r="C133" s="1">
+        <v>103</v>
+      </c>
+      <c r="D133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" t="s">
         <v>27</v>
       </c>
-      <c r="J132" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C133" s="1">
+      <c r="J133" t="s">
+        <v>28</v>
+      </c>
+      <c r="U133">
+        <v>64</v>
+      </c>
+      <c r="V133">
+        <v>256</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+      <c r="X133">
+        <v>1</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z133">
+        <v>1</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="4"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB133">
+        <f t="shared" si="5"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30">
+      <c r="B134">
+        <v>102</v>
+      </c>
+      <c r="C134" s="1">
+        <v>104</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" t="s">
+        <v>54</v>
+      </c>
+      <c r="J134" t="s">
+        <v>28</v>
+      </c>
+      <c r="U134">
+        <v>64</v>
+      </c>
+      <c r="V134">
+        <v>128</v>
+      </c>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <v>1</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <v>1</v>
+      </c>
+      <c r="AA134">
+        <f t="shared" si="4"/>
+        <v>524288</v>
+      </c>
+      <c r="AB134">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30">
+      <c r="B135">
+        <v>103</v>
+      </c>
+      <c r="C135" s="1">
+        <v>105</v>
+      </c>
+      <c r="D135" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>25</v>
+      </c>
+      <c r="H135" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" t="s">
+        <v>28</v>
+      </c>
+      <c r="U135">
+        <v>64</v>
+      </c>
+      <c r="V135">
+        <v>256</v>
+      </c>
+      <c r="W135">
+        <v>3</v>
+      </c>
+      <c r="X135">
+        <v>1</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z135">
+        <v>1</v>
+      </c>
+      <c r="AA135">
+        <f t="shared" si="4"/>
+        <v>1048576</v>
+      </c>
+      <c r="AB135">
+        <f t="shared" si="5"/>
+        <v>294912</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30">
+      <c r="B136">
+        <v>104</v>
+      </c>
+      <c r="C136" s="1">
         <v>106</v>
       </c>
-      <c r="D133" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s">
         <v>39</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G136" t="s">
         <v>31</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H136" t="s">
         <v>26</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I136" t="s">
         <v>27</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J136" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C134" s="1">
+      <c r="U136">
+        <v>64</v>
+      </c>
+      <c r="V136">
+        <v>255</v>
+      </c>
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <v>1</v>
+      </c>
+      <c r="AA136">
+        <f t="shared" si="4"/>
+        <v>1044480</v>
+      </c>
+      <c r="AB136">
+        <f t="shared" si="5"/>
+        <v>65280</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30">
+      <c r="C137" s="1">
         <v>107</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D137" t="s">
         <v>40</v>
       </c>
-      <c r="E134" t="s">
-        <v>53</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" t="s">
         <v>42</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G137" t="s">
         <v>43</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H137" t="s">
         <v>44</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I137" t="s">
         <v>45</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J137" t="s">
         <v>46</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K137" t="s">
         <v>47</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L137" t="s">
         <v>48</v>
+      </c>
+      <c r="N137" t="s">
+        <v>42</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>1</v>
+      </c>
+      <c r="AA137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:30">
+      <c r="AD138" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30">
+      <c r="Y139" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z139">
+        <v>1</v>
+      </c>
+      <c r="AA139">
+        <f>SUM(AA30:AA137)*2</f>
+        <v>170118144</v>
+      </c>
+      <c r="AB139">
+        <f>SUM(AB30:AB137)*3</f>
+        <v>188043558</v>
+      </c>
+      <c r="AD139" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30">
+      <c r="Y140" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z140" s="11">
+        <v>16</v>
+      </c>
+      <c r="AA140">
+        <f>(AA139+AB139)*Z140*AD139/8/1024/1024/1024</f>
+        <v>21.348101019859314</v>
+      </c>
+    </row>
+    <row r="146" spans="26:26">
+      <c r="Z146" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="26:26">
+      <c r="Z148" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="26:26">
+      <c r="Z149" s="6"/>
+    </row>
+    <row r="150" spans="26:26">
+      <c r="Z150" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="26:26">
+      <c r="Z151" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="153" spans="26:26" ht="23.25">
+      <c r="Z153" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="26:26">
+      <c r="Z154" s="6"/>
+    </row>
+    <row r="155" spans="26:26">
+      <c r="Z155" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="26:26">
+      <c r="Z156" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="26:26">
+      <c r="Z158" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="26:26" ht="23.25">
+      <c r="Z160" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="26:26">
+      <c r="Z162" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="26:26">
+      <c r="Z163" s="6"/>
+    </row>
+    <row r="164" spans="26:26">
+      <c r="Z164" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="26:26">
+      <c r="Z165" s="6"/>
+    </row>
+    <row r="166" spans="26:26">
+      <c r="Z166" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="26:26">
+      <c r="Z167" s="6"/>
+    </row>
+    <row r="168" spans="26:26">
+      <c r="Z168" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="26:26">
+      <c r="Z169" s="6"/>
+    </row>
+    <row r="170" spans="26:26">
+      <c r="Z170" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="26:26">
+      <c r="Z171" s="6"/>
+    </row>
+    <row r="172" spans="26:26">
+      <c r="Z172" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="173" spans="26:26">
+      <c r="Z173" s="6"/>
+    </row>
+    <row r="174" spans="26:26">
+      <c r="Z174" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="26:26">
+      <c r="Z175" s="6"/>
+    </row>
+    <row r="176" spans="26:26">
+      <c r="Z176" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="26:26">
+      <c r="Z177" s="6"/>
+    </row>
+    <row r="178" spans="26:26">
+      <c r="Z178" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179" spans="26:26">
+      <c r="Z179" s="6"/>
+    </row>
+    <row r="180" spans="26:26">
+      <c r="Z180" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="181" spans="26:26">
+      <c r="Z181" s="6"/>
+    </row>
+    <row r="182" spans="26:26">
+      <c r="Z182" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="26:26">
+      <c r="Z184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="186" spans="26:26">
+      <c r="Z186" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="26:26">
+      <c r="Z187" s="6"/>
+    </row>
+    <row r="188" spans="26:26">
+      <c r="Z188" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="26:26">
+      <c r="Z190" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="26:26">
+      <c r="Z192" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" spans="26:26">
+      <c r="Z194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="196" spans="26:26">
+      <c r="Z196" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198" spans="26:26">
+      <c r="Z198" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="26:26">
+      <c r="Z200" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202" spans="26:26">
+      <c r="Z202" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="204" spans="26:26">
+      <c r="Z204" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="206" spans="26:26">
+      <c r="Z206" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="208" spans="26:26" ht="23.25">
+      <c r="Z208" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="26:26">
+      <c r="Z210" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Z146" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3184,12 +7253,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/cfg/Yolov3_new.xlsx
+++ b/cfg/Yolov3_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="90" windowWidth="13380" windowHeight="2685"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="105">
   <si>
     <t>[net]</t>
   </si>
@@ -665,12 +665,15 @@
   <si>
     <t>Float Bit (16/32)</t>
   </si>
+  <si>
+    <t>Anchor boxes: (x x y)  oder anders ausgedrückt (Höhe x Breite)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +788,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -840,9 +848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -880,7 +888,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -914,6 +922,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -948,9 +957,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1123,14 +1133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BF210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z142" sqref="Z142"/>
+    <sheetView tabSelected="1" topLeftCell="B95" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -1150,131 +1160,131 @@
     <col min="67" max="67" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:58">
+    <row r="1" spans="3:58" x14ac:dyDescent="0.25">
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="3:58">
+    <row r="2" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:58">
+    <row r="3" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:58">
+    <row r="4" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:58">
+    <row r="5" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:58">
+    <row r="6" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:58">
+    <row r="7" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:58">
+    <row r="8" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:58">
+    <row r="9" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:58">
+    <row r="10" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="3:58">
+    <row r="11" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:58">
+    <row r="12" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:58">
+    <row r="13" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:58">
+    <row r="14" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:58">
+    <row r="15" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:58">
+    <row r="16" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:28">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AB26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AA27" t="s">
         <v>67</v>
       </c>
@@ -1282,7 +1292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>56</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="T30" t="s">
         <v>62</v>
       </c>
@@ -1337,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1393,7 +1403,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -1449,7 +1459,7 @@
         <v>18432</v>
       </c>
     </row>
-    <row r="33" spans="2:28">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -1505,7 +1515,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="34" spans="2:28">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>4</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>18432</v>
       </c>
     </row>
-    <row r="35" spans="2:28">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>5</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:28">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>6</v>
       </c>
@@ -1661,7 +1671,7 @@
         <v>73728</v>
       </c>
     </row>
-    <row r="37" spans="2:28">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>7</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="38" spans="2:28">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>73728</v>
       </c>
     </row>
-    <row r="39" spans="2:28">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:28">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="41" spans="2:28">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>11</v>
       </c>
@@ -1929,7 +1939,7 @@
         <v>73728</v>
       </c>
     </row>
-    <row r="42" spans="2:28">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>12</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:28">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>13</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="44" spans="2:28">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>14</v>
       </c>
@@ -2085,7 +2095,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="45" spans="2:28">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>15</v>
       </c>
@@ -2141,7 +2151,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="46" spans="2:28">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>16</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:28">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>17</v>
       </c>
@@ -2241,7 +2251,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="48" spans="2:28">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>18</v>
       </c>
@@ -2297,7 +2307,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="49" spans="2:28">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>19</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:28">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>20</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="51" spans="2:28">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>21</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="52" spans="2:28">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>22</v>
       </c>
@@ -2497,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:28">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>23</v>
       </c>
@@ -2553,7 +2563,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="54" spans="2:28">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>24</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="55" spans="2:28">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>25</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:28">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>26</v>
       </c>
@@ -2709,7 +2719,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="57" spans="2:28">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>27</v>
       </c>
@@ -2765,7 +2775,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="58" spans="2:28">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>28</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:28">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>29</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="60" spans="2:28">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>30</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="61" spans="2:28">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>31</v>
       </c>
@@ -2965,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:28">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>32</v>
       </c>
@@ -3021,7 +3031,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="63" spans="2:28">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>33</v>
       </c>
@@ -3077,7 +3087,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="64" spans="2:28">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>34</v>
       </c>
@@ -3121,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:28">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>35</v>
       </c>
@@ -3177,7 +3187,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="66" spans="2:28">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>36</v>
       </c>
@@ -3233,7 +3243,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="67" spans="2:28">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>37</v>
       </c>
@@ -3277,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:28">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>38</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="69" spans="2:28">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>39</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="70" spans="2:28">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>40</v>
       </c>
@@ -3445,7 +3455,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="71" spans="2:28">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>41</v>
       </c>
@@ -3489,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:28">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>42</v>
       </c>
@@ -3545,7 +3555,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="73" spans="2:28">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>43</v>
       </c>
@@ -3601,7 +3611,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="74" spans="2:28">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>44</v>
       </c>
@@ -3645,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:28">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>45</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="76" spans="2:28">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>46</v>
       </c>
@@ -3757,7 +3767,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="77" spans="2:28">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>47</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:28">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>48</v>
       </c>
@@ -3857,7 +3867,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="79" spans="2:28">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>49</v>
       </c>
@@ -3913,7 +3923,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="80" spans="2:28">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>50</v>
       </c>
@@ -3957,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:28">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>51</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="82" spans="2:28">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>52</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="83" spans="2:28">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>53</v>
       </c>
@@ -4113,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:28">
+    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>54</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="85" spans="2:28">
+    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>55</v>
       </c>
@@ -4225,7 +4235,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="86" spans="2:28">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>56</v>
       </c>
@@ -4269,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:28">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>57</v>
       </c>
@@ -4325,7 +4335,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="88" spans="2:28">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>58</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="89" spans="2:28">
+    <row r="89" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>59</v>
       </c>
@@ -4425,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:28">
+    <row r="90" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>60</v>
       </c>
@@ -4481,7 +4491,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="91" spans="2:28">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>61</v>
       </c>
@@ -4537,7 +4547,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="92" spans="2:28">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>62</v>
       </c>
@@ -4581,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:28">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>63</v>
       </c>
@@ -4637,7 +4647,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="94" spans="2:28">
+    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>64</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="95" spans="2:28">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>65</v>
       </c>
@@ -4749,7 +4759,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="96" spans="2:28">
+    <row r="96" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>66</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:28">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>67</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="98" spans="2:28">
+    <row r="98" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>68</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="99" spans="2:28">
+    <row r="99" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>69</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:28">
+    <row r="100" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>70</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="101" spans="2:28">
+    <row r="101" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>71</v>
       </c>
@@ -5061,7 +5071,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="102" spans="2:28">
+    <row r="102" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>72</v>
       </c>
@@ -5105,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:28">
+    <row r="103" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>73</v>
       </c>
@@ -5161,7 +5171,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="104" spans="2:28">
+    <row r="104" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>74</v>
       </c>
@@ -5217,7 +5227,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="105" spans="2:28">
+    <row r="105" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>75</v>
       </c>
@@ -5261,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:28">
+    <row r="106" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>76</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="107" spans="2:28">
+    <row r="107" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>77</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="108" spans="2:28">
+    <row r="108" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>78</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="109" spans="2:28">
+    <row r="109" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>79</v>
       </c>
@@ -5485,7 +5495,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="110" spans="2:28">
+    <row r="110" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>80</v>
       </c>
@@ -5541,7 +5551,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="111" spans="2:28">
+    <row r="111" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>81</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>4718592</v>
       </c>
     </row>
-    <row r="112" spans="2:28">
+    <row r="112" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>82</v>
       </c>
@@ -5653,7 +5663,7 @@
         <v>261120</v>
       </c>
     </row>
-    <row r="113" spans="2:28">
+    <row r="113" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C113" s="1">
         <v>83</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>65025</v>
       </c>
     </row>
-    <row r="114" spans="2:28">
+    <row r="114" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>83</v>
       </c>
@@ -5756,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:28">
+    <row r="115" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>84</v>
       </c>
@@ -5812,7 +5822,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="116" spans="2:28">
+    <row r="116" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>85</v>
       </c>
@@ -5856,7 +5866,7 @@
         <v>589824</v>
       </c>
     </row>
-    <row r="117" spans="2:28">
+    <row r="117" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>86</v>
       </c>
@@ -5897,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:28">
+    <row r="118" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>87</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="119" spans="2:28">
+    <row r="119" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>88</v>
       </c>
@@ -6009,7 +6019,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="120" spans="2:28">
+    <row r="120" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>89</v>
       </c>
@@ -6065,7 +6075,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="121" spans="2:28">
+    <row r="121" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>90</v>
       </c>
@@ -6121,7 +6131,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="122" spans="2:28">
+    <row r="122" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>91</v>
       </c>
@@ -6177,7 +6187,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="123" spans="2:28">
+    <row r="123" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>92</v>
       </c>
@@ -6233,7 +6243,7 @@
         <v>1179648</v>
       </c>
     </row>
-    <row r="124" spans="2:28">
+    <row r="124" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>93</v>
       </c>
@@ -6286,7 +6296,7 @@
         <v>130560</v>
       </c>
     </row>
-    <row r="125" spans="2:28">
+    <row r="125" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C125" s="1">
         <v>95</v>
       </c>
@@ -6348,7 +6358,7 @@
         <v>65025</v>
       </c>
     </row>
-    <row r="126" spans="2:28">
+    <row r="126" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>94</v>
       </c>
@@ -6389,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:28">
+    <row r="127" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>95</v>
       </c>
@@ -6445,7 +6455,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="128" spans="2:28">
+    <row r="128" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>96</v>
       </c>
@@ -6489,7 +6499,7 @@
         <v>147456</v>
       </c>
     </row>
-    <row r="129" spans="2:30">
+    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>97</v>
       </c>
@@ -6530,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:30">
+    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>98</v>
       </c>
@@ -6586,7 +6596,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="131" spans="2:30">
+    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>99</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="132" spans="2:30">
+    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>100</v>
       </c>
@@ -6698,7 +6708,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="133" spans="2:30">
+    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>101</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="134" spans="2:30">
+    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>102</v>
       </c>
@@ -6810,7 +6820,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="135" spans="2:30">
+    <row r="135" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>103</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>294912</v>
       </c>
     </row>
-    <row r="136" spans="2:30">
+    <row r="136" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>104</v>
       </c>
@@ -6919,7 +6929,7 @@
         <v>65280</v>
       </c>
     </row>
-    <row r="137" spans="2:30">
+    <row r="137" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C137" s="1">
         <v>107</v>
       </c>
@@ -6981,12 +6991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:30">
+    <row r="138" spans="2:30" x14ac:dyDescent="0.25">
       <c r="AD138" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="2:30">
+    <row r="139" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Y139" t="s">
         <v>101</v>
       </c>
@@ -7005,7 +7015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="2:30">
+    <row r="140" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Y140" t="s">
         <v>100</v>
       </c>
@@ -7017,211 +7027,216 @@
         <v>21.348101019859314</v>
       </c>
     </row>
-    <row r="146" spans="26:26">
+    <row r="141" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z146" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="26:26">
+    <row r="148" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z148" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="26:26">
+    <row r="149" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z149" s="6"/>
     </row>
-    <row r="150" spans="26:26">
+    <row r="150" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z150" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="26:26">
+    <row r="151" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z151" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="26:26" ht="23.25">
+    <row r="153" spans="26:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Z153" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="26:26">
+    <row r="154" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z154" s="6"/>
     </row>
-    <row r="155" spans="26:26">
+    <row r="155" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z155" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="26:26">
+    <row r="156" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z156" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="26:26">
+    <row r="158" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z158" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="26:26" ht="23.25">
+    <row r="160" spans="26:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Z160" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="26:26">
+    <row r="162" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z162" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="163" spans="26:26">
+    <row r="163" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z163" s="6"/>
     </row>
-    <row r="164" spans="26:26">
+    <row r="164" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z164" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="26:26">
+    <row r="165" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z165" s="6"/>
     </row>
-    <row r="166" spans="26:26">
+    <row r="166" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z166" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="26:26">
+    <row r="167" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z167" s="6"/>
     </row>
-    <row r="168" spans="26:26">
+    <row r="168" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z168" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="26:26">
+    <row r="169" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z169" s="6"/>
     </row>
-    <row r="170" spans="26:26">
+    <row r="170" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z170" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="26:26">
+    <row r="171" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z171" s="6"/>
     </row>
-    <row r="172" spans="26:26">
+    <row r="172" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z172" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="26:26">
+    <row r="173" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z173" s="6"/>
     </row>
-    <row r="174" spans="26:26">
+    <row r="174" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z174" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="26:26">
+    <row r="175" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z175" s="6"/>
     </row>
-    <row r="176" spans="26:26">
+    <row r="176" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z176" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="26:26">
+    <row r="177" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z177" s="6"/>
     </row>
-    <row r="178" spans="26:26">
+    <row r="178" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z178" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="26:26">
+    <row r="179" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z179" s="6"/>
     </row>
-    <row r="180" spans="26:26">
+    <row r="180" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z180" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="181" spans="26:26">
+    <row r="181" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z181" s="6"/>
     </row>
-    <row r="182" spans="26:26">
+    <row r="182" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z182" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="184" spans="26:26">
+    <row r="184" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z184" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="186" spans="26:26">
+    <row r="186" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z186" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="187" spans="26:26">
+    <row r="187" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z187" s="6"/>
     </row>
-    <row r="188" spans="26:26">
+    <row r="188" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z188" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="26:26">
+    <row r="190" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z190" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="26:26">
+    <row r="192" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z192" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="26:26">
+    <row r="194" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z194" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="26:26">
+    <row r="196" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z196" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="26:26">
+    <row r="198" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z198" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="26:26">
+    <row r="200" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z200" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="26:26">
+    <row r="202" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z202" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="26:26">
+    <row r="204" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z204" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="26:26">
+    <row r="206" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z206" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="208" spans="26:26" ht="23.25">
+    <row r="208" spans="26:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Z208" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="210" spans="26:26">
+    <row r="210" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z210" t="s">
         <v>99</v>
       </c>
@@ -7238,14 +7253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7253,12 +7268,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/cfg/Yolov3_new.xlsx
+++ b/cfg/Yolov3_new.xlsx
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BF210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
